--- a/tests/fixtures/combined_inputs.xlsx
+++ b/tests/fixtures/combined_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\trevorb1\repositories\trevor\otoole\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CE323A-5640-47CF-A417-929176BAC3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A6FE7B-3208-4189-8B59-250901E9A718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="38" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AccumulatedAnnualDemand" sheetId="1" r:id="rId1"/>
@@ -31,58 +31,59 @@
     <sheet name="DAYTYPE" sheetId="16" r:id="rId16"/>
     <sheet name="DepreciationMethod" sheetId="17" r:id="rId17"/>
     <sheet name="DiscountRate" sheetId="18" r:id="rId18"/>
-    <sheet name="EMISSION" sheetId="19" r:id="rId19"/>
-    <sheet name="EmissionActivityRatio" sheetId="20" r:id="rId20"/>
-    <sheet name="EmissionsPenalty" sheetId="21" r:id="rId21"/>
-    <sheet name="FixedCost" sheetId="22" r:id="rId22"/>
-    <sheet name="FUEL" sheetId="23" r:id="rId23"/>
-    <sheet name="InputActivityRatio" sheetId="24" r:id="rId24"/>
-    <sheet name="MinStorageCharge" sheetId="25" r:id="rId25"/>
-    <sheet name="MODE_OF_OPERATION" sheetId="26" r:id="rId26"/>
-    <sheet name="ModelPeriodEmissionLimit" sheetId="27" r:id="rId27"/>
-    <sheet name="ModelPeriodExogenousEmission" sheetId="28" r:id="rId28"/>
-    <sheet name="OperationalLife" sheetId="29" r:id="rId29"/>
-    <sheet name="OperationalLifeStorage" sheetId="30" r:id="rId30"/>
-    <sheet name="OutputActivityRatio" sheetId="31" r:id="rId31"/>
-    <sheet name="REGION" sheetId="32" r:id="rId32"/>
-    <sheet name="REMinProductionTarget" sheetId="33" r:id="rId33"/>
-    <sheet name="ReserveMargin" sheetId="34" r:id="rId34"/>
-    <sheet name="ReserveMarginTagFuel" sheetId="35" r:id="rId35"/>
-    <sheet name="ReserveMarginTagTechnology" sheetId="36" r:id="rId36"/>
-    <sheet name="ResidualCapacity" sheetId="37" r:id="rId37"/>
-    <sheet name="ResidualStorageCapacity" sheetId="38" r:id="rId38"/>
-    <sheet name="RETagFuel" sheetId="39" r:id="rId39"/>
-    <sheet name="RETagTechnology" sheetId="40" r:id="rId40"/>
-    <sheet name="SEASON" sheetId="41" r:id="rId41"/>
-    <sheet name="SpecifiedAnnualDemand" sheetId="42" r:id="rId42"/>
-    <sheet name="SpecifiedDemandProfile" sheetId="43" r:id="rId43"/>
-    <sheet name="STORAGE" sheetId="44" r:id="rId44"/>
-    <sheet name="StorageLevelStart" sheetId="45" r:id="rId45"/>
-    <sheet name="StorageMaxChargeRate" sheetId="46" r:id="rId46"/>
-    <sheet name="StorageMaxDischargeRate" sheetId="47" r:id="rId47"/>
-    <sheet name="TECHNOLOGY" sheetId="48" r:id="rId48"/>
-    <sheet name="TechnologyFromStorage" sheetId="49" r:id="rId49"/>
-    <sheet name="TechnologyToStorage" sheetId="50" r:id="rId50"/>
-    <sheet name="TIMESLICE" sheetId="51" r:id="rId51"/>
-    <sheet name="TotalAnnualMaxCapacity" sheetId="52" r:id="rId52"/>
-    <sheet name="TotalAnnualMaxCapacityInvestmen" sheetId="53" r:id="rId53"/>
-    <sheet name="TotalAnnualMinCapacity" sheetId="54" r:id="rId54"/>
-    <sheet name="TotalAnnualMinCapacityInvestmen" sheetId="55" r:id="rId55"/>
-    <sheet name="TotalTechnologyAnnualActivityLo" sheetId="56" r:id="rId56"/>
-    <sheet name="TotalTechnologyAnnualActivityUp" sheetId="57" r:id="rId57"/>
-    <sheet name="TotalTechnologyModelPeriodActLo" sheetId="58" r:id="rId58"/>
-    <sheet name="TotalTechnologyModelPeriodActUp" sheetId="59" r:id="rId59"/>
-    <sheet name="TradeRoute" sheetId="60" r:id="rId60"/>
-    <sheet name="VariableCost" sheetId="61" r:id="rId61"/>
-    <sheet name="YEAR" sheetId="62" r:id="rId62"/>
-    <sheet name="YearSplit" sheetId="63" r:id="rId63"/>
+    <sheet name="DiscountRateStorage" sheetId="64" r:id="rId19"/>
+    <sheet name="EMISSION" sheetId="19" r:id="rId20"/>
+    <sheet name="EmissionActivityRatio" sheetId="20" r:id="rId21"/>
+    <sheet name="EmissionsPenalty" sheetId="21" r:id="rId22"/>
+    <sheet name="FixedCost" sheetId="22" r:id="rId23"/>
+    <sheet name="FUEL" sheetId="23" r:id="rId24"/>
+    <sheet name="InputActivityRatio" sheetId="24" r:id="rId25"/>
+    <sheet name="MinStorageCharge" sheetId="25" r:id="rId26"/>
+    <sheet name="MODE_OF_OPERATION" sheetId="26" r:id="rId27"/>
+    <sheet name="ModelPeriodEmissionLimit" sheetId="27" r:id="rId28"/>
+    <sheet name="ModelPeriodExogenousEmission" sheetId="28" r:id="rId29"/>
+    <sheet name="OperationalLife" sheetId="29" r:id="rId30"/>
+    <sheet name="OperationalLifeStorage" sheetId="30" r:id="rId31"/>
+    <sheet name="OutputActivityRatio" sheetId="31" r:id="rId32"/>
+    <sheet name="REGION" sheetId="32" r:id="rId33"/>
+    <sheet name="REMinProductionTarget" sheetId="33" r:id="rId34"/>
+    <sheet name="ReserveMargin" sheetId="34" r:id="rId35"/>
+    <sheet name="ReserveMarginTagFuel" sheetId="35" r:id="rId36"/>
+    <sheet name="ReserveMarginTagTechnology" sheetId="36" r:id="rId37"/>
+    <sheet name="ResidualCapacity" sheetId="37" r:id="rId38"/>
+    <sheet name="ResidualStorageCapacity" sheetId="38" r:id="rId39"/>
+    <sheet name="RETagFuel" sheetId="39" r:id="rId40"/>
+    <sheet name="RETagTechnology" sheetId="40" r:id="rId41"/>
+    <sheet name="SEASON" sheetId="41" r:id="rId42"/>
+    <sheet name="SpecifiedAnnualDemand" sheetId="42" r:id="rId43"/>
+    <sheet name="SpecifiedDemandProfile" sheetId="43" r:id="rId44"/>
+    <sheet name="STORAGE" sheetId="44" r:id="rId45"/>
+    <sheet name="StorageLevelStart" sheetId="45" r:id="rId46"/>
+    <sheet name="StorageMaxChargeRate" sheetId="46" r:id="rId47"/>
+    <sheet name="StorageMaxDischargeRate" sheetId="47" r:id="rId48"/>
+    <sheet name="TECHNOLOGY" sheetId="48" r:id="rId49"/>
+    <sheet name="TechnologyFromStorage" sheetId="49" r:id="rId50"/>
+    <sheet name="TechnologyToStorage" sheetId="50" r:id="rId51"/>
+    <sheet name="TIMESLICE" sheetId="51" r:id="rId52"/>
+    <sheet name="TotalAnnualMaxCapacity" sheetId="52" r:id="rId53"/>
+    <sheet name="TotalAnnualMaxCapacityInvestmen" sheetId="53" r:id="rId54"/>
+    <sheet name="TotalAnnualMinCapacity" sheetId="54" r:id="rId55"/>
+    <sheet name="TotalAnnualMinCapacityInvestmen" sheetId="55" r:id="rId56"/>
+    <sheet name="TotalTechnologyAnnualActivityLo" sheetId="56" r:id="rId57"/>
+    <sheet name="TotalTechnologyAnnualActivityUp" sheetId="57" r:id="rId58"/>
+    <sheet name="TotalTechnologyModelPeriodActLo" sheetId="58" r:id="rId59"/>
+    <sheet name="TotalTechnologyModelPeriodActUp" sheetId="59" r:id="rId60"/>
+    <sheet name="TradeRoute" sheetId="60" r:id="rId61"/>
+    <sheet name="VariableCost" sheetId="61" r:id="rId62"/>
+    <sheet name="YEAR" sheetId="62" r:id="rId63"/>
+    <sheet name="YearSplit" sheetId="63" r:id="rId64"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="243">
   <si>
     <t>REGION</t>
   </si>
@@ -6496,7 +6497,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6515,30 +6516,28 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3192EE-E7B2-4B46-88F1-8301B1B94168}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="E7:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6666,6 +6665,34 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AL1"/>
   <sheetViews>
@@ -6794,7 +6821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
@@ -6917,7 +6944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
@@ -8690,7 +8717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A97"/>
   <sheetViews>
@@ -9188,7 +9215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AL52"/>
   <sheetViews>
@@ -15233,7 +15260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
@@ -15356,7 +15383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -15379,7 +15406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -15403,7 +15430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -15420,184 +15447,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -15729,6 +15578,184 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -15752,7 +15779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:AL90"/>
   <sheetViews>
@@ -26205,7 +26232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -26228,7 +26255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26246,7 +26273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
@@ -26473,7 +26500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
@@ -26816,7 +26843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
@@ -29579,7 +29606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
@@ -31242,7 +31269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
@@ -31256,129 +31283,6 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="S1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="T1" s="1">
-        <v>2034</v>
-      </c>
-      <c r="U1" s="1">
-        <v>2035</v>
-      </c>
-      <c r="V1" s="1">
-        <v>2036</v>
-      </c>
-      <c r="W1" s="1">
-        <v>2037</v>
-      </c>
-      <c r="X1" s="1">
-        <v>2038</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>2039</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>2040</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>2041</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>2042</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2043</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>2044</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>2045</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>2046</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>2047</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
-  <dimension ref="A1:AJ1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1">
         <v>2017</v>
@@ -33042,6 +32946,129 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:AJ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
@@ -33164,7 +33191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -33197,7 +33224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
@@ -33430,7 +33457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:AK13"/>
   <sheetViews>
@@ -34912,7 +34939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -34930,12 +34957,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34956,7 +34983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -34980,7 +35007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -35004,7 +35031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:A120"/>
   <sheetViews>
@@ -35610,36 +35637,6 @@
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -53402,6 +53399,36 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -53431,7 +53458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -53509,7 +53536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
@@ -54072,7 +54099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
@@ -54195,7 +54222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
@@ -54318,7 +54345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
@@ -54441,7 +54468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
@@ -54564,7 +54591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <dimension ref="A1:AJ1"/>
   <sheetViews>
@@ -54687,32 +54714,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -54757,6 +54760,30 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -54785,7 +54812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <dimension ref="A1:AK52"/>
   <sheetViews>
@@ -60674,7 +60701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <dimension ref="A1:A35"/>
   <sheetViews>
@@ -60862,7 +60889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
